--- a/Check list DI.xlsx
+++ b/Check list DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082BA54B-610A-499A-9F90-66FD4EA0B734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91DB7B-F5F7-454A-9528-83371DB000C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="191">
   <si>
     <t>Oddo</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Servicios personalizados</t>
   </si>
   <si>
-    <t xml:space="preserve">Ventas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Términos y condiciones </t>
   </si>
   <si>
@@ -94,13 +91,7 @@
     <t>Finalizar e insertar</t>
   </si>
   <si>
-    <t>Crear: será solo correo o formulario?</t>
-  </si>
-  <si>
     <t>Definir</t>
-  </si>
-  <si>
-    <t>Revisar</t>
   </si>
   <si>
     <t>Revisar y editar el formulario existente</t>
@@ -127,9 +118,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Pie de página</t>
-  </si>
-  <si>
     <t>Herramientas</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
   </si>
   <si>
     <t>Contáctanos</t>
-  </si>
-  <si>
-    <t>Determinar si se bare en la misma página o una nueva para que no nos saque del sitio</t>
   </si>
   <si>
     <t>Ícono Sobre: Outlook? o correo Data?</t>
@@ -192,13 +177,7 @@
     <t>Definir: Video Data Salvaguarda?</t>
   </si>
   <si>
-    <t>Subimos DATA Salvaguarda?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elaborar y subir. </t>
-  </si>
-  <si>
-    <t>Subimos DATA HIDRO si no hay productos?</t>
   </si>
   <si>
     <t>DATA HIDRO</t>
@@ -312,9 +291,6 @@
     <t>Data Transparencia</t>
   </si>
   <si>
-    <t>Subimos DATA Transparencia?</t>
-  </si>
-  <si>
     <t>Definir: Video Data Transparencia</t>
   </si>
   <si>
@@ -340,9 +316,6 @@
   </si>
   <si>
     <t>Definir: Video Data Género?</t>
-  </si>
-  <si>
-    <t>VIDEOS (Detalle Hoja Videos)</t>
   </si>
   <si>
     <t>Data Género</t>
@@ -453,9 +426,6 @@
     <t>Productos digitales</t>
   </si>
   <si>
-    <t>Alinear texto arriba</t>
-  </si>
-  <si>
     <t>Cambiar imagen</t>
   </si>
   <si>
@@ -561,9 +531,6 @@
     <t>Portadas DATAs</t>
   </si>
   <si>
-    <t>Eliminar Salvaguardas</t>
-  </si>
-  <si>
     <t>Productos: Bajada</t>
   </si>
   <si>
@@ -612,9 +579,6 @@
     <t>Agregar "Colecciones" y ajustar "Nuestra Empresa"</t>
   </si>
   <si>
-    <t>Eliiminar todo</t>
-  </si>
-  <si>
     <t>Ayuda</t>
   </si>
   <si>
@@ -642,9 +606,6 @@
     <t>Compras</t>
   </si>
   <si>
-    <t>Agrandar cuadros para mejor visualización</t>
-  </si>
-  <si>
     <t>Eliminar imágenes que sobra</t>
   </si>
   <si>
@@ -666,9 +627,6 @@
     <t>Formulario</t>
   </si>
   <si>
-    <t>Agregar menú desplegable de ASUNTO</t>
-  </si>
-  <si>
     <t>Teléfono</t>
   </si>
   <si>
@@ -702,9 +660,6 @@
     <t>Página entrada</t>
   </si>
   <si>
-    <t>Homologar las RRSS en toda la pagina. Las opciones de compartir son solo "Facebook, Twitter, LinkedIn, Pinterest"</t>
-  </si>
-  <si>
     <t>Newsletter</t>
   </si>
   <si>
@@ -724,6 +679,69 @@
   </si>
   <si>
     <t>Definir cómo será, porque de momento solo se ve una entrada. Definir cuáles se van a dejar visibles</t>
+  </si>
+  <si>
+    <t>Responsables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear correos </t>
+  </si>
+  <si>
+    <t>soporte</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Venta Corporativa</t>
+  </si>
+  <si>
+    <t>Eliminar todo</t>
+  </si>
+  <si>
+    <t>Subimos DATA HIDRO si no hay productos? No</t>
+  </si>
+  <si>
+    <t>Subimos DATA Salvaguarda? NO</t>
+  </si>
+  <si>
+    <t>Subimos DATA Transparencia? NO</t>
+  </si>
+  <si>
+    <t>Crear Diseño</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Ajustar el contenido en la página de Oddo y vincularlo al contacto</t>
+  </si>
+  <si>
+    <t>Ventas Corporativas</t>
+  </si>
+  <si>
+    <t>Maca</t>
+  </si>
+  <si>
+    <t>Clent</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Revisar: Decisión Sacarlo</t>
+  </si>
+  <si>
+    <t>Funcionalidad, respuesta automática</t>
+  </si>
+  <si>
+    <t>preguntar</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
   <si>
     <r>
@@ -738,8 +756,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Definir qué hacer con esto, porque lleva a la tienda de odoo y no busca dentro de la página. Quizás es mejor </t>
+      <t>Se decidió quitarlo</t>
     </r>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDEOS </t>
+  </si>
+  <si>
+    <t>Subimos DATA Salvaguarda? No</t>
+  </si>
+  <si>
+    <t>Abner</t>
+  </si>
+  <si>
+    <t>Eliminar Salvaguardas: Eliminado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Homologar las RRSS en toda la pagina. Las opciones de compartir son solo "Facebook, Twitter, LinkedIn, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quitar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pinterest". Agregar ws y correo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que efectivamente se pueda compartir por las RRSS en toda la pagina. </t>
+  </si>
+  <si>
+    <t>Nuevas imágenes</t>
+  </si>
+  <si>
+    <t>Agregar menú desplegable de ASUNTO: No se puede</t>
   </si>
 </sst>
 </file>
@@ -792,7 +859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,12 +869,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,9 +914,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -868,11 +926,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -982,6 +1058,20 @@
           <bgColor theme="3"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1107,28 +1197,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B4:F91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B4:F91" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0DAA2398-6532-42B2-AFD0-A3A681240218}" name="Elemento" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{CC9B1D35-3C46-4E5D-B701-1B1DD1B3435C}" name="Ubicación" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{1097CCD0-180F-4BEE-B7CC-FEA12B79D33E}" name="items" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FBB1A0F6-D932-45A0-908C-0BF409E20488}" name="Acción requerida" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{12A131B9-DE65-41F0-B0FB-79BFBDBC2090}" name="Estado" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B4:H95" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B4:H95" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0DAA2398-6532-42B2-AFD0-A3A681240218}" name="Elemento" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CC9B1D35-3C46-4E5D-B701-1B1DD1B3435C}" name="Ubicación" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1097CCD0-180F-4BEE-B7CC-FEA12B79D33E}" name="items" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FBB1A0F6-D932-45A0-908C-0BF409E20488}" name="Acción requerida" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{12A131B9-DE65-41F0-B0FB-79BFBDBC2090}" name="Estado" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{65FE3A3F-112E-44D2-B655-3BA6AE818AD7}" name="Responsables" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{669E3447-6ED7-43F1-AF93-647D63116A58}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B11C1A8-D7B0-4F67-B41A-E246D0132D43}" name="Tabla13" displayName="Tabla13" ref="B4:F27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B11C1A8-D7B0-4F67-B41A-E246D0132D43}" name="Tabla13" displayName="Tabla13" ref="B4:F27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:F27" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{76E703D6-72DA-4AB7-BFC7-CB56E3D6BEC1}" name="Elemento" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{31CB4537-1A3A-49EF-97AE-32BC7FAC4CEA}" name="Ubicación" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{035B0306-EA87-4D09-B3A6-D3A177E38DE3}" name="items" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FEE7A650-C683-442C-939B-D474B7A7C95F}" name="Acción requerida" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{730754E2-4A1B-422A-A6B7-66D52877A69C}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{76E703D6-72DA-4AB7-BFC7-CB56E3D6BEC1}" name="Elemento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{31CB4537-1A3A-49EF-97AE-32BC7FAC4CEA}" name="Ubicación" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{035B0306-EA87-4D09-B3A6-D3A177E38DE3}" name="items" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FEE7A650-C683-442C-939B-D474B7A7C95F}" name="Acción requerida" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{730754E2-4A1B-422A-A6B7-66D52877A69C}" name="Estado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1431,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF0F2B-5837-485E-8785-2E45E866CE53}">
-  <dimension ref="B4:F91"/>
+  <dimension ref="B4:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,1488 +1540,1755 @@
     <col min="7" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="26" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="26" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="26" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="F14" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="26" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F15" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>171</v>
+        <v>155</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E52" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F64" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="E72" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F67" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F69" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F73" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="F77" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="39.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F78" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="E87" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="E89" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="F93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F82" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F83" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F87" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F88" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F90" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1</v>
+      <c r="F95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2963,7 +3322,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F1:F15 F17:F29 F34:F1048576</xm:sqref>
+          <xm:sqref>F18:F30 F1:F16 F35:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{44B3C2CD-320C-4BB7-8C62-E3F26B70D766}">
@@ -2982,7 +3341,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F30</xm:sqref>
+          <xm:sqref>F31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{96F03DE9-95A6-4AC3-BB9A-64052E431B31}">
@@ -3001,7 +3360,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F31</xm:sqref>
+          <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{F2A6AF36-C630-4704-80FE-F49FF3D873B2}">
@@ -3020,7 +3379,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{0153BFC0-3E93-4762-A3DF-CDB589C3429E}">
@@ -3039,7 +3398,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F33</xm:sqref>
+          <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD5E7829-9BE4-499C-BC89-A205014B271B}">
@@ -3058,7 +3417,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3070,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB69352-64DC-4129-9891-854D3C40463F}">
   <dimension ref="B4:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3087,19 +3446,19 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -3107,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>-1</v>
@@ -3124,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>-1</v>
@@ -3141,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3">
         <v>-1</v>
@@ -3158,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -3175,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
         <v>-1</v>
@@ -3192,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>-1</v>
@@ -3209,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>-1</v>
@@ -3226,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3">
         <v>-1</v>
@@ -3243,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>-1</v>
@@ -3260,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3">
         <v>-1</v>
@@ -3277,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3">
         <v>-1</v>
@@ -3294,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3">
         <v>-1</v>
@@ -3311,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3">
         <v>-1</v>
@@ -3328,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
         <v>-1</v>
@@ -3345,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3362,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3379,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F21" s="3">
         <v>-1</v>
@@ -3396,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3">
         <v>-1</v>
@@ -3413,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3">
         <v>-1</v>
@@ -3430,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3">
         <v>-1</v>
@@ -3447,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3">
         <v>-1</v>
@@ -3464,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3">
         <v>-1</v>
@@ -3481,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3">
         <v>-1</v>

--- a/Check list DI.xlsx
+++ b/Check list DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91DB7B-F5F7-454A-9528-83371DB000C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541CB1CA-DAEA-45B8-A9F6-1F1AABDD5136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="193">
   <si>
     <t>Oddo</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>Agregar menú desplegable de ASUNTO: No se puede</t>
+  </si>
+  <si>
+    <t>preguntar a Pato</t>
+  </si>
+  <si>
+    <t>FALTA VISTA EN ODOO para DATALAB.... con botón para el DATALAB de Shopify</t>
   </si>
 </sst>
 </file>
@@ -948,20 +954,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1058,6 +1050,20 @@
           <bgColor theme="3"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1197,8 +1203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B4:H95" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B4:H95" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B4:H96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B4:H96" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0DAA2398-6532-42B2-AFD0-A3A681240218}" name="Elemento" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CC9B1D35-3C46-4E5D-B701-1B1DD1B3435C}" name="Ubicación" dataDxfId="12"/>
@@ -1206,21 +1212,21 @@
     <tableColumn id="5" xr3:uid="{FBB1A0F6-D932-45A0-908C-0BF409E20488}" name="Acción requerida" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{12A131B9-DE65-41F0-B0FB-79BFBDBC2090}" name="Estado" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{65FE3A3F-112E-44D2-B655-3BA6AE818AD7}" name="Responsables" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{669E3447-6ED7-43F1-AF93-647D63116A58}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{669E3447-6ED7-43F1-AF93-647D63116A58}" name="Columna1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B11C1A8-D7B0-4F67-B41A-E246D0132D43}" name="Tabla13" displayName="Tabla13" ref="B4:F27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B11C1A8-D7B0-4F67-B41A-E246D0132D43}" name="Tabla13" displayName="Tabla13" ref="B4:F27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B4:F27" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{76E703D6-72DA-4AB7-BFC7-CB56E3D6BEC1}" name="Elemento" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{31CB4537-1A3A-49EF-97AE-32BC7FAC4CEA}" name="Ubicación" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{035B0306-EA87-4D09-B3A6-D3A177E38DE3}" name="items" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FEE7A650-C683-442C-939B-D474B7A7C95F}" name="Acción requerida" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{730754E2-4A1B-422A-A6B7-66D52877A69C}" name="Estado" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{76E703D6-72DA-4AB7-BFC7-CB56E3D6BEC1}" name="Elemento" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{31CB4537-1A3A-49EF-97AE-32BC7FAC4CEA}" name="Ubicación" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{035B0306-EA87-4D09-B3A6-D3A177E38DE3}" name="items" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FEE7A650-C683-442C-939B-D474B7A7C95F}" name="Acción requerida" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{730754E2-4A1B-422A-A6B7-66D52877A69C}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF0F2B-5837-485E-8785-2E45E866CE53}">
-  <dimension ref="B4:H95"/>
+  <dimension ref="B4:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,7 +1601,7 @@
         <v>169</v>
       </c>
       <c r="F6" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>171</v>
@@ -1615,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>174</v>
@@ -1635,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>174</v>
@@ -1660,6 +1666,9 @@
       <c r="G9" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -2057,7 +2066,7 @@
         <v>46</v>
       </c>
       <c r="F31" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>185</v>
@@ -2111,7 +2120,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>176</v>
@@ -2745,7 +2754,7 @@
         <v>117</v>
       </c>
       <c r="F66" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>185</v>
@@ -2833,7 +2842,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>174</v>
@@ -3285,6 +3294,24 @@
       </c>
       <c r="G95" s="2" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Check list DI.xlsx
+++ b/Check list DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541CB1CA-DAEA-45B8-A9F6-1F1AABDD5136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C1962-1088-4347-9DC8-1EEA8E7AF320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
   </bookViews>

--- a/Check list DI.xlsx
+++ b/Check list DI.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C1962-1088-4347-9DC8-1EEA8E7AF320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B54791-DBB1-4900-A33F-6172D0B1961B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B99D5F8B-B693-4A1B-A095-499F0347C307}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Videos" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_Estado">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId3"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="205">
   <si>
     <t>Oddo</t>
   </si>
@@ -321,9 +332,6 @@
     <t>Data Género</t>
   </si>
   <si>
-    <t>Subimos DATA Género?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -549,9 +557,6 @@
     <t>AGRO</t>
   </si>
   <si>
-    <t>Ver qué hacer. Si se deja hay que definir precios productos, armar fichas para cada producto (5 en total) y agregar a filtros</t>
-  </si>
-  <si>
     <t>Ver qué hacer. Si se deja hay que armar página colección, definir precios productos, armar fichas para cada producto (5 en total) y agregar a filtros</t>
   </si>
   <si>
@@ -773,6 +778,61 @@
   </si>
   <si>
     <t>Eliminar Salvaguardas: Eliminado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que efectivamente se pueda compartir por las RRSS en toda la pagina. </t>
+  </si>
+  <si>
+    <t>Nuevas imágenes</t>
+  </si>
+  <si>
+    <t>Agregar menú desplegable de ASUNTO: No se puede</t>
+  </si>
+  <si>
+    <t>preguntar a Pato</t>
+  </si>
+  <si>
+    <t>FALTA VISTA EN ODOO para DATALAB.... con botón para el DATALAB de Shopify</t>
+  </si>
+  <si>
+    <t>Maca - Alfonso</t>
+  </si>
+  <si>
+    <t>En manos de Pablo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subimos DATA Género? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NO VA </t>
+    </r>
+  </si>
+  <si>
+    <t>Actualización Karen</t>
+  </si>
+  <si>
+    <t>Cambiar pantallazos</t>
+  </si>
+  <si>
+    <t>Revisar pantallazos productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver qué hacer. Si se deja hay que definir precios productos, armar fichas para cada producto </t>
   </si>
   <si>
     <r>
@@ -796,23 +856,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pinterest". Agregar ws y correo</t>
+      <t xml:space="preserve">Pinterest". Agregar ws y correo. </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar que efectivamente se pueda compartir por las RRSS en toda la pagina. </t>
-  </si>
-  <si>
-    <t>Nuevas imágenes</t>
-  </si>
-  <si>
-    <t>Agregar menú desplegable de ASUNTO: No se puede</t>
-  </si>
-  <si>
-    <t>preguntar a Pato</t>
-  </si>
-  <si>
-    <t>FALTA VISTA EN ODOO para DATALAB.... con botón para el DATALAB de Shopify</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO SE PUEDE</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajustar correo de confirmación de pedido</t>
+  </si>
+  <si>
+    <t>Redireccionar correos o definir quién los revisa</t>
+  </si>
+  <si>
+    <t>Ventas / Soporte</t>
+  </si>
+  <si>
+    <t>Cambiar link de página web en los distintos perfiles de RRSS</t>
+  </si>
+  <si>
+    <t>Ajustar precios después de hacer pruebas de compras</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>CORREOS</t>
   </si>
 </sst>
 </file>
@@ -865,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +951,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -935,6 +1023,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,9 +1302,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2825750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Estado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0236629D-5AB4-481A-958F-8C9387ED1FFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Estado"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7397750" y="0"/>
+              <a:ext cx="1568450" cy="641349"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CL" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Estado" xr10:uid="{8C811C0F-89A9-44BD-9475-A2F3CF7ACEE0}" sourceName="Estado">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Estado" xr10:uid="{C9DBC7A2-996F-423C-840D-E6763ECA867E}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="3" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B4:H96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B4:H96" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C76A068A-17DC-45B5-A408-B23EED6AC153}" name="Tabla1" displayName="Tabla1" ref="B5:H100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B5:H100" xr:uid="{96003784-6BF0-45E8-8432-A1D61120FBFA}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="-1"/>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0DAA2398-6532-42B2-AFD0-A3A681240218}" name="Elemento" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CC9B1D35-3C46-4E5D-B701-1B1DD1B3435C}" name="Ubicación" dataDxfId="12"/>
@@ -1529,113 +1735,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF0F2B-5837-485E-8785-2E45E866CE53}">
-  <dimension ref="B4:H96"/>
+  <dimension ref="B5:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.453125" style="12" customWidth="1"/>
     <col min="5" max="5" width="46.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.90625" style="3"/>
-    <col min="7" max="16384" width="10.90625" style="2"/>
+    <col min="7" max="7" width="15.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="G5" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1644,129 +1832,135 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
+        <v>67</v>
+      </c>
+      <c r="F10" s="20">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>22</v>
@@ -1775,104 +1969,107 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F16" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="3">
         <v>-1</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -1881,18 +2078,18 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
@@ -1900,70 +2097,70 @@
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
+      <c r="E22" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="26.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -1972,18 +2169,18 @@
         <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
@@ -1991,1331 +2188,1420 @@
       <c r="D27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>182</v>
+      <c r="E27" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>46</v>
+      <c r="E31" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>168</v>
+        <v>45</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F32" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F33" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="E36" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="D45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="E46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="16" t="s">
+      <c r="E47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E48" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="16" t="s">
+      <c r="E51" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="16" t="s">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="E52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="16" t="s">
+      <c r="E53" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="E54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E55" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="16" t="s">
+      <c r="E59" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="E60" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="E61" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="E65" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="E66" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>116</v>
+        <v>70</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="F67" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G67" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>186</v>
+        <v>113</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="E72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="7" t="s">
+      <c r="D74" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="E74" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="D78" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E82" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F79" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F80" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="7" t="s">
+      <c r="D90" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="E90" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E91" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="15" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" s="3">
         <v>-1</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="G98" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F95" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>171</v>
+      <c r="G100" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="F6:F7">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3326,8 +3612,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3349,7 +3636,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F18:F30 F1:F16 F35:F1048576</xm:sqref>
+          <xm:sqref>F19:F31 F1:F17 F36:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{44B3C2CD-320C-4BB7-8C62-E3F26B70D766}">
@@ -3368,7 +3655,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F31</xm:sqref>
+          <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{96F03DE9-95A6-4AC3-BB9A-64052E431B31}">
@@ -3387,7 +3674,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{F2A6AF36-C630-4704-80FE-F49FF3D873B2}">
@@ -3406,7 +3693,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F33</xm:sqref>
+          <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{0153BFC0-3E93-4762-A3DF-CDB589C3429E}">
@@ -3425,7 +3712,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F34</xm:sqref>
+          <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD5E7829-9BE4-499C-BC89-A205014B271B}">
@@ -3444,9 +3731,14 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
@@ -3816,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>31</v>
@@ -3833,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>54</v>
@@ -3850,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>31</v>
@@ -3867,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>42</v>
